--- a/public/import_template/template_schedule_inspection_housekeeping.xlsx
+++ b/public/import_template/template_schedule_inspection_housekeeping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimasakbarlonardi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimasakbarlonardi/Import ProApps/Housekeeping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD992D0-B913-184B-BA21-324CB9574B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB55DE4-2EB0-B24F-9562-94E5D68A36DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{5E511BC7-8757-8D45-BEB4-6FABB99DD1F6}"/>
   </bookViews>
@@ -36,19 +36,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>No</t>
   </si>
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -60,6 +69,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,7 +103,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +421,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,19 +438,20 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>44927</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>44928</v>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>